--- a/amron/HattaKattaBCM1.xlsx
+++ b/amron/HattaKattaBCM1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrik Singh\Dropbox\AmrikBox\DataSets\healthdata\Health-Insurance-Risk-Data-Set\amron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C544DE54-0D3C-450F-BB27-44AD3064D238}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BEDF11CD-E9C5-4A60-ADF0-C5F1B230D719}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>start</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>2018-04-08T09:16:53</t>
+  </si>
+  <si>
+    <t>Jammu</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +773,7 @@
         <v>47</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
         <v>49</v>

--- a/amron/HattaKattaBCM1.xlsx
+++ b/amron/HattaKattaBCM1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrik Singh\Dropbox\AmrikBox\DataSets\healthdata\Health-Insurance-Risk-Data-Set\amron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amrik Singh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BEDF11CD-E9C5-4A60-ADF0-C5F1B230D719}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F86AF52F-F805-4600-826E-7EB4C6BC544F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="218">
   <si>
     <t>Birth Age(Yrs)</t>
   </si>
@@ -103,6 +97,12 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
     <t>_id</t>
   </si>
   <si>
@@ -115,12 +115,6 @@
     <t>_index</t>
   </si>
   <si>
-    <t>2018-04-08T12:41:16.992+05:30</t>
-  </si>
-  <si>
-    <t>2018-04-08T12:49:15.870+05:30</t>
-  </si>
-  <si>
     <t>43.0</t>
   </si>
   <si>
@@ -166,6 +160,18 @@
     <t>20</t>
   </si>
   <si>
+    <t>30.8047238 76.8971389 0 0</t>
+  </si>
+  <si>
+    <t>30.8047238</t>
+  </si>
+  <si>
+    <t>76.8971389</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Pinjore</t>
   </si>
   <si>
@@ -175,18 +181,18 @@
     <t>10:20:00.000+05:30</t>
   </si>
   <si>
-    <t>59dbf5d8-4ddb-4479-ba8e-4fa740156e22</t>
+    <t>Amrik Singh</t>
+  </si>
+  <si>
+    <t>white collar business</t>
+  </si>
+  <si>
+    <t>cce325b5-2023-47cc-9644-e2217d1bc5c5</t>
   </si>
   <si>
     <t>2018-04-08T07:19:19</t>
   </si>
   <si>
-    <t>2018-04-08T14:38:56.218+05:30</t>
-  </si>
-  <si>
-    <t>2018-04-08T14:43:19.272+05:30</t>
-  </si>
-  <si>
     <t>172.0</t>
   </si>
   <si>
@@ -223,21 +229,27 @@
     <t>10</t>
   </si>
   <si>
+    <t>30.8047236 76.89713894 0 0</t>
+  </si>
+  <si>
+    <t>30.8047236</t>
+  </si>
+  <si>
+    <t>76.89713894</t>
+  </si>
+  <si>
     <t>10:40:00.000+05:30</t>
   </si>
   <si>
-    <t>0f4caeee-fd48-448a-9e8d-0cadaece9be1</t>
+    <t>Puneet Arora</t>
+  </si>
+  <si>
+    <t>3c49984d-eeee-40fc-b2f3-e57e6dbed545</t>
   </si>
   <si>
     <t>2018-04-08T09:13:50</t>
   </si>
   <si>
-    <t>2018-04-08T14:44:22.126+05:30</t>
-  </si>
-  <si>
-    <t>2018-04-08T14:46:21.105+05:30</t>
-  </si>
-  <si>
     <t>37.0</t>
   </si>
   <si>
@@ -268,22 +280,409 @@
     <t>25</t>
   </si>
   <si>
+    <t>30.8047123 76.89763451 0 0</t>
+  </si>
+  <si>
+    <t>30.8047123</t>
+  </si>
+  <si>
+    <t>76.89763451</t>
+  </si>
+  <si>
     <t>10:25:00.000+05:30</t>
   </si>
   <si>
-    <t>1fcf8d7b-3f22-4771-a83e-f91529396000</t>
+    <t>Mohinder Singh</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>347e1149-7fb1-4f6b-b0e9-5c5c2197e5d4</t>
   </si>
   <si>
     <t>2018-04-08T09:16:53</t>
   </si>
   <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>17.7</t>
+  </si>
+  <si>
+    <t>30.80472068 76.89711893 478.0 4.5509996</t>
+  </si>
+  <si>
+    <t>30.80472068</t>
+  </si>
+  <si>
+    <t>76.89711893</t>
+  </si>
+  <si>
+    <t>478.0</t>
+  </si>
+  <si>
+    <t>4.5509996</t>
+  </si>
+  <si>
+    <t>2018-04-09</t>
+  </si>
+  <si>
+    <t>Manish kashav</t>
+  </si>
+  <si>
+    <t>maid</t>
+  </si>
+  <si>
+    <t>b2f7fed6-e434-4bb2-8a6f-d18bd152a22a</t>
+  </si>
+  <si>
+    <t>2018-04-09T05:23:00</t>
+  </si>
+  <si>
+    <t>79.8</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>30.80473243 76.89714465 477.0 4.5509996</t>
+  </si>
+  <si>
+    <t>30.80473243</t>
+  </si>
+  <si>
+    <t>76.89714465</t>
+  </si>
+  <si>
+    <t>477.0</t>
+  </si>
+  <si>
+    <t>10:17:00.000+05:30</t>
+  </si>
+  <si>
+    <t>445dbc61-c2e8-4a3a-8040-426bc867c2c2</t>
+  </si>
+  <si>
+    <t>2018-04-09T05:30:33</t>
+  </si>
+  <si>
+    <t>80.9</t>
+  </si>
+  <si>
+    <t>28.8</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>30.80473471 76.89714931 478.0 4.5509996</t>
+  </si>
+  <si>
+    <t>30.80473471</t>
+  </si>
+  <si>
+    <t>76.89714931</t>
+  </si>
+  <si>
+    <t>09:40:00.000+05:30</t>
+  </si>
+  <si>
+    <t>f2756340-6d6c-4990-8f52-e4d5789176aa</t>
+  </si>
+  <si>
+    <t>2018-04-09T05:33:51</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>29.4</t>
+  </si>
+  <si>
+    <t>29.3</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>30.80474252 76.89714178 482.0 4.5509996</t>
+  </si>
+  <si>
+    <t>30.80474252</t>
+  </si>
+  <si>
+    <t>76.89714178</t>
+  </si>
+  <si>
+    <t>482.0</t>
+  </si>
+  <si>
+    <t>10:48:00.000+05:30</t>
+  </si>
+  <si>
+    <t>Ram lal</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>a676878f-da25-437b-a050-fcc245a5ead6</t>
+  </si>
+  <si>
+    <t>2018-04-09T05:37:22</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>1553</t>
+  </si>
+  <si>
+    <t>30.8047237 76.89713897 483.0 4.5509996</t>
+  </si>
+  <si>
+    <t>30.8047237</t>
+  </si>
+  <si>
+    <t>76.89713897</t>
+  </si>
+  <si>
+    <t>483.0</t>
+  </si>
+  <si>
+    <t>10:50:00.000+05:30</t>
+  </si>
+  <si>
+    <t>Om Singh</t>
+  </si>
+  <si>
+    <t>Property dealer</t>
+  </si>
+  <si>
+    <t>5d390c64-0509-4966-bdd7-24751d839ad0</t>
+  </si>
+  <si>
+    <t>2018-04-09T05:41:11</t>
+  </si>
+  <si>
+    <t>69.7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>26.6</t>
+  </si>
+  <si>
+    <t>30.799361 76.914908 0 0</t>
+  </si>
+  <si>
+    <t>30.799361</t>
+  </si>
+  <si>
+    <t>76.914908</t>
+  </si>
+  <si>
+    <t>19:55:00.000+05:30</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>house maker</t>
+  </si>
+  <si>
+    <t>5b467325-de57-4e62-83d6-8c90350a47aa</t>
+  </si>
+  <si>
+    <t>2018-04-08T14:40:50</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>67.1</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>1556</t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>30.799324 76.914865 0 0</t>
+  </si>
+  <si>
+    <t>30.799324</t>
+  </si>
+  <si>
+    <t>76.914865</t>
+  </si>
+  <si>
+    <t>19:35:00.000+05:30</t>
+  </si>
+  <si>
+    <t>Sukhdev singh</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>781e22b2-ea9d-4494-8ae3-5c236cda260a</t>
+  </si>
+  <si>
+    <t>2018-04-08T14:36:12</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>35.9</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>24.4</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>27.1</t>
+  </si>
+  <si>
+    <t>30.799324 76.914951 0 0</t>
+  </si>
+  <si>
+    <t>76.914951</t>
+  </si>
+  <si>
+    <t>19:50:00.000+05:30</t>
+  </si>
+  <si>
+    <t>Manju Thakur</t>
+  </si>
+  <si>
+    <t>599c00af-d32c-4855-b746-5f7fa3bc8b33</t>
+  </si>
+  <si>
+    <t>2018-04-08T14:38:44</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>32.6986332 74.8643979 317 4.5509996</t>
+  </si>
+  <si>
+    <t>32.6986332</t>
+  </si>
+  <si>
+    <t>74.8643979</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
     <t>Jammu</t>
+  </si>
+  <si>
+    <t>21:37:00.000+05:30</t>
+  </si>
+  <si>
+    <t>Baldeep kour</t>
+  </si>
+  <si>
+    <t>a5285634-e761-4f06-b5cc-151f943b59ae</t>
+  </si>
+  <si>
+    <t>2018-04-08T16:07:53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -313,8 +712,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,10 +1159,10 @@
       <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>44</v>
       </c>
       <c r="Q2" t="s">
@@ -772,23 +1174,38 @@
       <c r="S2" t="s">
         <v>47</v>
       </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" t="s">
+        <v>51</v>
+      </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AB2">
         <v>9662871</v>
       </c>
       <c r="AC2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AD2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AE2">
         <v>1</v>
@@ -796,73 +1213,88 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>68</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="T3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>51</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="AB3">
         <v>9664041</v>
       </c>
       <c r="AC3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="AE3">
         <v>2</v>
@@ -870,76 +1302,739 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
         <v>59</v>
       </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" t="s">
+        <v>68</v>
       </c>
       <c r="Q4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="S4" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>51</v>
       </c>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="Z4" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AB4">
         <v>9664049</v>
       </c>
       <c r="AC4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AE4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U5" t="s">
+        <v>106</v>
+      </c>
+      <c r="V5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB5">
+        <v>9677941</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" t="s">
+        <v>116</v>
+      </c>
+      <c r="S6" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" t="s">
+        <v>107</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB6">
+        <v>9678069</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R7" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" t="s">
+        <v>129</v>
+      </c>
+      <c r="T7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" t="s">
+        <v>106</v>
+      </c>
+      <c r="V7" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB7">
+        <v>9678087</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="1">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S8" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8" t="s">
+        <v>141</v>
+      </c>
+      <c r="U8" t="s">
+        <v>142</v>
+      </c>
+      <c r="V8" t="s">
+        <v>107</v>
+      </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB8">
+        <v>9678114</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="1">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U9" t="s">
+        <v>156</v>
+      </c>
+      <c r="V9" t="s">
+        <v>107</v>
+      </c>
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB9">
+        <v>9678204</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="1">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" t="s">
+        <v>168</v>
+      </c>
+      <c r="S10" t="s">
+        <v>169</v>
+      </c>
+      <c r="T10" t="s">
+        <v>170</v>
+      </c>
+      <c r="U10" t="s">
+        <v>49</v>
+      </c>
+      <c r="V10" t="s">
+        <v>49</v>
+      </c>
+      <c r="W10" t="s">
+        <v>50</v>
+      </c>
+      <c r="X10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB10">
+        <v>9668652</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="1">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" t="s">
+        <v>185</v>
+      </c>
+      <c r="T11" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V11" t="s">
+        <v>49</v>
+      </c>
+      <c r="W11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB11">
+        <v>9668602</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="1">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" t="s">
+        <v>199</v>
+      </c>
+      <c r="R12" t="s">
+        <v>200</v>
+      </c>
+      <c r="S12" t="s">
+        <v>185</v>
+      </c>
+      <c r="T12" t="s">
+        <v>201</v>
+      </c>
+      <c r="U12" t="s">
+        <v>49</v>
+      </c>
+      <c r="V12" t="s">
+        <v>49</v>
+      </c>
+      <c r="W12" t="s">
+        <v>50</v>
+      </c>
+      <c r="X12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB12">
+        <v>9668641</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>208</v>
+      </c>
+      <c r="R13" t="s">
+        <v>209</v>
+      </c>
+      <c r="S13" t="s">
+        <v>210</v>
+      </c>
+      <c r="T13" t="s">
+        <v>211</v>
+      </c>
+      <c r="U13" t="s">
+        <v>212</v>
+      </c>
+      <c r="V13" t="s">
+        <v>107</v>
+      </c>
+      <c r="W13" t="s">
+        <v>213</v>
+      </c>
+      <c r="X13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB13">
+        <v>9670433</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
